--- a/Excels/item.xlsx
+++ b/Excels/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="16480"/>
+    <workbookView windowWidth="25960" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>item_id</t>
   </si>
@@ -40,6 +40,12 @@
     <t>item_type</t>
   </si>
   <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -49,16 +55,46 @@
     <t>盘缠</t>
   </si>
   <si>
-    <t>宝石</t>
-  </si>
-  <si>
-    <t>秘籍</t>
+    <t>钱币</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>矿物</t>
+  </si>
+  <si>
+    <t>绿宝石</t>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+  </si>
+  <si>
+    <t>皇血草</t>
+  </si>
+  <si>
+    <t>草药</t>
+  </si>
+  <si>
+    <t>地根草</t>
+  </si>
+  <si>
+    <t>麒麟蛋</t>
   </si>
   <si>
     <t>异兽蛋</t>
   </si>
   <si>
-    <t>法宝碎片</t>
+    <t>貔貅蛋</t>
+  </si>
+  <si>
+    <t>金箍棒碎片</t>
+  </si>
+  <si>
+    <t>法宝</t>
+  </si>
+  <si>
+    <t>乾坤圈碎片</t>
   </si>
 </sst>
 </file>
@@ -989,15 +1025,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="12.7272727272727" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1007,71 +1047,198 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>3001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>3002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>4001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>4002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>5001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>5002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
         <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
